--- a/doc/interface.xlsx
+++ b/doc/interface.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정서연\IdeaProjects\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F129F-872D-47C0-B492-F5DCB7994288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="803" firstSheet="8" activeTab="21" xr2:uid="{AF9AEC6C-83FD-400A-9B38-8B3C14AD68ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996" tabRatio="803" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="11" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="회원 정보 수정" sheetId="5" r:id="rId10"/>
     <sheet name="회원 탈퇴" sheetId="7" r:id="rId11"/>
     <sheet name="문제 등록" sheetId="8" r:id="rId12"/>
-    <sheet name="문제 조회" sheetId="9" r:id="rId13"/>
+    <sheet name="문제 목록 조회" sheetId="9" r:id="rId13"/>
     <sheet name="문제 상세 조회" sheetId="23" r:id="rId14"/>
     <sheet name="답안 등록" sheetId="14" r:id="rId15"/>
     <sheet name="답안 목록 조회" sheetId="15" r:id="rId16"/>
@@ -36,7 +35,7 @@
     <sheet name="일일 랭킹 조회" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet2" sheetId="26" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="230">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,24 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "result_code" : "00000"
-    , "response_time" : "2020-11-10 06:00:21"
-    , "response_message" : "정상 처리되었습니다"
-    , "data" : {
-        "user_name" : "홍길동"
-        , "email" : "abc@bb.com"
-        , "nickname" : "길동"
-        , "password" : "dream1004!"
-        , "mobile" : "01044445555"
-        , "try_count" : 0
-        , "success_count" : 0
-        , "delete_yn" : "Y"
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,15 +636,6 @@
   </si>
   <si>
     <t>http://localhost:8080/answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "problem_title" : "hello world"
-    , "level" : "easy"
-    , "language_code" : "L0001"
-    , "nickname" : "GD"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1121,11 +1093,37 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+    "result_code" : "00000"
+    , "response_time" : "2020-11-10 06:00:21"
+    , "response_message" : "정상 처리되었습니다"
+    , "data" : {
+        "user_name" : "홍길동"
+        , "email" : "abc@bb.com"
+        , "nickname" : "길동"
+        , "mobile" : "01044445555"
+        , "try_count" : 0
+        , "success_count" : 0
+        , "delete_yn" : "Y"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "problem_title" : "hello world"
+    , "level" : "easy"
+    , "language_code" : "L0001"
+    , "nickname" : "GD"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1718,26 +1716,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A1DE47-9A3E-4F82-AFBD-3676F2053EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1745,12 +1743,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -1758,7 +1756,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1771,12 +1769,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1784,7 +1782,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1795,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +1806,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -1819,7 +1817,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1830,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +1872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1902,7 +1900,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1911,7 +1909,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1920,7 +1918,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1929,7 +1927,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1938,7 +1936,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1947,7 +1945,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1956,7 +1954,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1965,7 +1963,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -1976,9 +1974,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1987,9 +1985,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1998,9 +1996,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2009,7 +2007,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2022,7 +2020,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -2045,7 +2043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2130,7 +2128,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2139,7 +2137,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2148,7 +2146,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2157,7 +2155,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2166,7 +2164,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2175,7 +2173,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2186,7 +2184,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -2217,8 +2215,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{D8D069E2-6329-4959-8044-0ABAB2D56BCF}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{99B20BD9-FCCF-48AA-9D47-054542E41F41}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2226,26 +2224,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2CD97-735F-4481-80C3-09FCFD8CA952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2253,12 +2251,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -2266,7 +2264,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2279,12 +2277,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2292,12 +2290,12 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -2305,7 +2303,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2316,7 +2314,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -2327,7 +2325,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2338,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2363,26 +2361,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2429,7 +2427,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2438,7 +2436,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2447,7 +2445,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2456,7 +2454,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2465,7 +2463,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2474,7 +2472,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
@@ -2485,9 +2483,9 @@
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -2496,9 +2494,9 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2507,9 +2505,9 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2518,7 +2516,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2529,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -2611,7 +2609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -2630,7 +2628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2639,7 +2637,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2648,7 +2646,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2657,7 +2655,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2666,7 +2664,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2675,7 +2673,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2684,7 +2682,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2693,7 +2691,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2704,7 +2702,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -2735,8 +2733,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{62ED5B02-0981-4E70-8102-717CA3021575}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{4EE7D53D-46F4-4D08-A3F1-9EE42C747FFF}"/>
+    <hyperlink ref="A20" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2744,26 +2742,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EF7EF5-9D69-4B93-AFCB-F8B86AA4D5A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2771,12 +2769,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -2784,7 +2782,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2797,12 +2795,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2810,12 +2808,12 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -2823,7 +2821,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2834,7 +2832,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -2845,7 +2843,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2858,7 +2856,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2881,26 +2879,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2909,7 +2907,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2918,7 +2916,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2927,7 +2925,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2936,7 +2934,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2945,7 +2943,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2954,7 +2952,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
@@ -2965,9 +2963,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -2976,9 +2974,9 @@
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -2987,9 +2985,9 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -2998,7 +2996,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3009,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3034,7 +3032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -3053,7 +3051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -3072,7 +3070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -3091,7 +3089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3119,7 +3117,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3128,7 +3126,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3137,7 +3135,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3146,7 +3144,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3155,7 +3153,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3164,7 +3162,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>17</v>
       </c>
@@ -3175,7 +3173,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3204,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" xr:uid="{798D303A-FEBC-453A-8BBD-AA82C87A475F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E6717562-8D28-4E85-9412-7D59E205A585}"/>
+    <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3215,26 +3213,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D643BF92-2126-4CB1-BA21-3CA05978C213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -3242,12 +3240,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -3255,7 +3253,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3268,12 +3266,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -3281,7 +3279,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3294,7 +3292,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3305,7 +3303,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -3316,7 +3314,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3327,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3352,31 +3350,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3387,15 +3385,15 @@
         <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3406,15 +3404,15 @@
         <v>31</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3425,15 +3423,15 @@
         <v>31</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3444,15 +3442,15 @@
         <v>31</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3463,15 +3461,15 @@
         <v>31</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3482,10 +3480,10 @@
         <v>31</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3494,7 +3492,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3505,9 +3503,9 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -3516,9 +3514,9 @@
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -3527,9 +3525,9 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -3538,7 +3536,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -3551,7 +3549,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -3574,7 +3572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -3593,7 +3591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3612,7 +3610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3659,7 +3657,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3668,7 +3666,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3677,7 +3675,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3686,7 +3684,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3695,7 +3693,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3704,7 +3702,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3713,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>62</v>
       </c>
@@ -3746,8 +3744,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" xr:uid="{C21C2358-3B83-4974-8A4B-57494CCF1B4C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7C44CF96-4719-461C-9113-9956C520A4E9}"/>
+    <hyperlink ref="A19" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3755,26 +3753,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A41E1-C421-4E2D-8AB4-CACEF21C0205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -3782,12 +3780,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -3795,7 +3793,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3808,12 +3806,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -3821,7 +3819,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3834,7 +3832,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3845,7 +3843,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -3856,7 +3854,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -3869,7 +3867,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3892,12 +3890,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3908,15 +3906,15 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3927,15 +3925,15 @@
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3946,48 +3944,28 @@
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3996,7 +3974,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4005,7 +3983,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4014,7 +3992,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4023,7 +4001,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4032,7 +4010,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -4043,9 +4021,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4054,9 +4032,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4065,9 +4043,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4076,7 +4054,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -4089,7 +4067,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4112,7 +4090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -4131,7 +4109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -4150,7 +4128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -4169,7 +4147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -4188,13 +4166,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
@@ -4204,10 +4182,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4216,7 +4194,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4225,7 +4203,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4234,7 +4212,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4243,7 +4221,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4252,7 +4230,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -4263,9 +4241,9 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -4294,8 +4272,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{06603263-FBCD-481B-BDBD-0402060AB993}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{56630D1E-A083-4236-AD2C-BD053E6A8CFE}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4303,26 +4281,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB3065-70BA-4CD5-9642-8E832CF42A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -4330,12 +4308,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -4343,7 +4321,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4356,12 +4334,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -4369,7 +4347,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4382,7 +4360,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4393,7 +4371,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -4404,7 +4382,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4417,7 +4395,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4440,12 +4418,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4456,10 +4434,10 @@
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4468,7 +4446,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4477,7 +4455,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4486,7 +4464,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4495,7 +4473,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4504,7 +4482,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4513,7 +4491,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4522,7 +4500,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4531,7 +4509,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4540,7 +4518,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -4551,9 +4529,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4562,9 +4540,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4573,9 +4551,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4584,7 +4562,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -4597,7 +4575,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4620,7 +4598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -4639,7 +4617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -4658,7 +4636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -4677,7 +4655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -4696,13 +4674,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
@@ -4712,10 +4690,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4724,7 +4702,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4733,7 +4711,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4742,7 +4720,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4751,7 +4729,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4760,7 +4738,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -4771,9 +4749,9 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -4802,8 +4780,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{1CC63D76-7758-4B28-8A83-743E0431C0B0}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{DCEA026D-746F-4D43-B636-CFC332FE335A}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4811,26 +4789,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E32C7F-5CD5-435D-881A-7CE1C9D8E5E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -4838,12 +4816,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -4851,7 +4829,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4864,12 +4842,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -4877,7 +4855,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4890,7 +4868,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4901,7 +4879,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -4912,7 +4890,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4925,7 +4903,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4948,31 +4926,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4983,34 +4961,34 @@
         <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5021,15 +4999,15 @@
         <v>31</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5040,15 +5018,15 @@
         <v>31</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5059,48 +5037,48 @@
         <v>31</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="B17" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5109,7 +5087,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5118,7 +5096,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -5129,9 +5107,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -5140,9 +5118,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -5151,9 +5129,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5162,7 +5140,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -5175,7 +5153,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -5198,7 +5176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -5217,7 +5195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -5236,7 +5214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -5255,7 +5233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -5274,7 +5252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -5283,7 +5261,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5292,7 +5270,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5301,7 +5279,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5310,7 +5288,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5319,7 +5297,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5328,7 +5306,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -5339,7 +5317,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -5370,8 +5348,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{71C82FAA-ECFF-4ECC-9059-A23D02067E2D}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{026EA083-FAB2-45AC-A91D-2F7F8A4CA2B5}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5379,26 +5357,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32970BF5-7726-4D38-AF06-2820E2A8F016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -5406,12 +5384,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -5419,7 +5397,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5432,12 +5410,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -5445,7 +5423,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5458,7 +5436,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5469,7 +5447,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -5480,7 +5458,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5493,7 +5471,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -5516,31 +5494,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5551,34 +5529,34 @@
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5589,10 +5567,10 @@
         <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5601,7 +5579,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5610,7 +5588,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5619,7 +5597,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5628,7 +5606,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5637,7 +5615,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5646,7 +5624,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -5657,9 +5635,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -5668,9 +5646,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -5679,9 +5657,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5690,7 +5668,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -5703,7 +5681,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -5726,7 +5704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -5745,7 +5723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -5764,7 +5742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -5783,7 +5761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -5802,13 +5780,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
@@ -5818,10 +5796,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5830,7 +5808,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5839,7 +5817,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5848,7 +5826,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5857,7 +5835,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5866,7 +5844,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -5877,9 +5855,9 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -5908,8 +5886,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{4BCD56FF-D44F-40C1-9114-99C89587EF3A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{BADCE3F7-C897-4A46-94E7-0CF50A83DC56}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5917,26 +5895,26 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941B62C3-2A7C-43DC-A943-CCE5413F786D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -5944,12 +5922,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -5957,7 +5935,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5970,12 +5948,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -5983,7 +5961,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5996,7 +5974,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6007,7 +5985,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -6018,7 +5996,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -6031,7 +6009,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -6054,26 +6032,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6082,7 +6060,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6091,7 +6069,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6100,7 +6078,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6109,7 +6087,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6118,7 +6096,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6127,7 +6105,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6136,7 +6114,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6145,7 +6123,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6154,7 +6132,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -6165,9 +6143,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6176,9 +6154,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -6187,9 +6165,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6198,7 +6176,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -6211,7 +6189,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -6234,7 +6212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -6253,7 +6231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -6272,7 +6250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -6291,7 +6269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -6310,13 +6288,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
@@ -6326,10 +6304,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6338,7 +6316,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6347,7 +6325,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6356,7 +6334,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -6365,7 +6343,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6374,7 +6352,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -6385,9 +6363,9 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -6416,8 +6394,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{8E92F79C-EB11-4AB7-966B-DC2AC5F0EB87}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{94FFDC96-5F0E-457E-B49A-7427CBD879EC}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6425,26 +6403,26 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9359D2F0-8478-4E5A-B0BE-65090A955A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6452,12 +6430,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -6465,7 +6443,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6478,12 +6456,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -6491,12 +6469,12 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -6504,7 +6482,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6515,7 +6493,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -6526,7 +6504,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -6539,7 +6517,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -6562,26 +6540,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6590,7 +6568,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6599,7 +6577,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6608,7 +6586,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6617,7 +6595,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6626,7 +6604,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6635,7 +6613,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6644,7 +6622,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6653,7 +6631,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6662,7 +6640,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -6673,9 +6651,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6684,9 +6662,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -6695,9 +6673,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6706,7 +6684,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -6719,7 +6697,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -6742,7 +6720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -6761,7 +6739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -6780,7 +6758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -6799,7 +6777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -6818,7 +6796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6827,7 +6805,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6836,7 +6814,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6845,7 +6823,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6854,7 +6832,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -6863,7 +6841,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6872,7 +6850,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -6883,7 +6861,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -6914,8 +6892,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{ED8D2B20-86A4-48F0-9B4A-C4C2099A0A44}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{734A95C7-1F7D-4C6B-8A62-8FB05D03AD53}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6923,26 +6901,26 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78807F03-E620-48C7-B8BA-BCF78FF2E420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6950,12 +6928,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -6963,7 +6941,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6976,12 +6954,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -6989,7 +6967,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7002,7 +6980,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7013,7 +6991,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -7024,7 +7002,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -7037,7 +7015,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -7060,45 +7038,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7107,7 +7085,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7116,7 +7094,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7125,7 +7103,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7134,7 +7112,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7143,7 +7121,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7152,7 +7130,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7161,7 +7139,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7170,7 +7148,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -7181,9 +7159,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -7192,9 +7170,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -7203,9 +7181,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -7214,7 +7192,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -7227,7 +7205,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -7250,7 +7228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -7269,7 +7247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -7288,7 +7266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -7307,7 +7285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -7326,7 +7304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -7335,7 +7313,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -7344,7 +7322,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -7353,7 +7331,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -7362,7 +7340,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -7371,7 +7349,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7380,7 +7358,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -7391,7 +7369,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -7422,8 +7400,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{AF60913E-0F7D-421A-A238-A24C834A7DFC}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0E66177F-B6B2-40CC-8E07-9047B37EEBC6}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -7431,26 +7409,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29FA3F-1596-49F1-9019-6FB2032537C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -7458,7 +7436,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7471,7 +7449,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7484,12 +7462,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -7497,7 +7475,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7510,7 +7488,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7521,7 +7499,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -7532,7 +7510,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -7545,7 +7523,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -7568,7 +7546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -7585,7 +7563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7594,7 +7572,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7603,7 +7581,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -7614,9 +7592,9 @@
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -7625,7 +7603,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -7636,7 +7614,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
@@ -7647,7 +7625,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -7660,7 +7638,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -7683,7 +7661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -7702,7 +7680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -7721,7 +7699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
@@ -7740,7 +7718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -7759,7 +7737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -7778,7 +7756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7787,7 +7765,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7796,7 +7774,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
@@ -7807,7 +7785,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>61</v>
       </c>
@@ -7820,11 +7798,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B17:G17"/>
@@ -7835,11 +7808,16 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" xr:uid="{1759F648-443F-45A6-B218-A0EA7904879F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6A65AA5B-66DF-437E-A254-087628CC7EF6}"/>
+    <hyperlink ref="A14" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -7847,26 +7825,26 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747C83A-0B10-4BC7-A494-8BF65ADAC4D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -7874,12 +7852,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -7887,7 +7865,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7900,12 +7878,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -7913,12 +7891,12 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -7926,7 +7904,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7937,7 +7915,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -7948,7 +7926,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -7961,7 +7939,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -7984,26 +7962,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8012,7 +7990,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8021,7 +7999,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8030,7 +8008,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8039,7 +8017,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8048,7 +8026,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8057,7 +8035,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8066,7 +8044,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8075,7 +8053,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8084,7 +8062,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -8095,9 +8073,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -8106,9 +8084,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -8117,9 +8095,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -8128,7 +8106,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -8141,7 +8119,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -8164,7 +8142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -8183,7 +8161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -8202,7 +8180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -8221,7 +8199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -8240,7 +8218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -8249,7 +8227,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8258,7 +8236,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8267,7 +8245,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -8276,7 +8254,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -8285,7 +8263,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -8294,7 +8272,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -8305,7 +8283,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -8336,8 +8314,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{ECCA62E3-131B-41C2-8939-4C2B63D22BD5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{73F3EDC8-D6D9-4FBD-9453-806494EFF13C}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -8345,26 +8323,26 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36985283-3463-45FE-9D8C-0524E76F3548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -8372,12 +8350,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -8385,7 +8363,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8398,12 +8376,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -8411,7 +8389,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8424,7 +8402,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -8435,7 +8413,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -8446,7 +8424,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -8459,7 +8437,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -8482,7 +8460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8491,7 +8469,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8500,7 +8478,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8509,7 +8487,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8518,7 +8496,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8527,7 +8505,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8536,7 +8514,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8545,7 +8523,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8554,7 +8532,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8563,7 +8541,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8572,7 +8550,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -8583,9 +8561,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -8594,7 +8572,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -8603,9 +8581,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -8614,7 +8592,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -8627,7 +8605,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -8650,7 +8628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -8669,7 +8647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -8688,7 +8666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -8707,7 +8685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -8726,9 +8704,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -8737,7 +8715,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8746,7 +8724,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8755,7 +8733,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -8764,7 +8742,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -8773,7 +8751,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -8782,7 +8760,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -8793,7 +8771,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -8824,8 +8802,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{BEEE3DF3-9422-4BC4-B98D-C29D9AD64B95}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D578F760-0516-4163-8A68-6D2D3F9D468B}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -8833,12 +8811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC2103-A3D4-4565-8FD5-71EC3B6B5E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8846,26 +8824,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733F60A8-F9CA-47CF-89CC-26BBA66E05F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -8873,12 +8851,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -8886,7 +8864,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8899,12 +8877,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -8912,7 +8890,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8925,7 +8903,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -8936,7 +8914,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -8947,7 +8925,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -8960,7 +8938,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -8983,9 +8961,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>45</v>
@@ -8999,10 +8977,10 @@
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9011,7 +8989,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9020,7 +8998,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9029,7 +9007,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9038,7 +9016,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9047,7 +9025,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9056,7 +9034,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9065,7 +9043,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9074,7 +9052,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9083,7 +9061,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -9094,9 +9072,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -9105,9 +9083,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -9116,9 +9094,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -9127,7 +9105,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -9140,7 +9118,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -9163,7 +9141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -9182,7 +9160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -9201,7 +9179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -9220,7 +9198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -9239,9 +9217,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
@@ -9255,10 +9233,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -9267,7 +9245,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -9276,7 +9254,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -9285,7 +9263,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -9294,7 +9272,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -9303,7 +9281,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -9314,7 +9292,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>61</v>
       </c>
@@ -9345,8 +9323,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{7E40ACC6-321D-48EB-80C5-1482C324F72A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{03078D27-A81C-419B-B86A-DAB5DBF9F45E}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -9354,26 +9332,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC5ACCA-DF5C-426F-A17A-BD71EB20DD94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -9381,7 +9359,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9394,7 +9372,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9407,7 +9385,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -9420,7 +9398,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9433,7 +9411,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -9444,7 +9422,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -9455,7 +9433,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -9468,7 +9446,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -9491,7 +9469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -9510,7 +9488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -9529,7 +9507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -9545,10 +9523,10 @@
         <v>31</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -9567,7 +9545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -9586,7 +9564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9595,7 +9573,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9604,7 +9582,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9613,7 +9591,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9622,7 +9600,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
@@ -9633,9 +9611,9 @@
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -9644,7 +9622,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>63</v>
       </c>
@@ -9655,7 +9633,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
@@ -9666,7 +9644,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -9679,7 +9657,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -9702,7 +9680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -9721,7 +9699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -9740,7 +9718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -9759,7 +9737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -9778,7 +9756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -9787,7 +9765,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -9796,7 +9774,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -9805,7 +9783,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
@@ -9816,7 +9794,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15" t="s">
         <v>62</v>
       </c>
@@ -9847,8 +9825,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{BF4E3713-7944-4D80-8F06-68B5AA49FF3A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D73EFFAB-04C9-42D0-A7CF-FFFCFCB68098}"/>
+    <hyperlink ref="A20" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -9856,26 +9834,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D3E3B4-D174-462F-A0AE-EF7A42322909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -9883,12 +9861,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -9896,7 +9874,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9909,12 +9887,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -9922,7 +9900,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9935,7 +9913,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -9946,7 +9924,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -9957,7 +9935,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -9970,7 +9948,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -9993,9 +9971,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -10009,12 +9987,12 @@
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>49</v>
@@ -10028,10 +10006,10 @@
         <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10040,7 +10018,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10049,7 +10027,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10058,7 +10036,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10067,7 +10045,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10076,7 +10054,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10085,7 +10063,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10094,7 +10072,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -10103,7 +10081,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -10114,9 +10092,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -10125,9 +10103,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -10136,9 +10114,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -10147,7 +10125,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -10160,7 +10138,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -10183,7 +10161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -10202,7 +10180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -10221,7 +10199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -10240,7 +10218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10259,9 +10237,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
@@ -10275,10 +10253,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -10287,7 +10265,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -10296,7 +10274,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -10305,7 +10283,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -10314,7 +10292,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -10323,7 +10301,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -10334,9 +10312,9 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10365,8 +10343,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{E0668443-53DF-4940-8A41-1270D7FFF226}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{353D080B-B3F6-4368-BC87-A43F3E0DCDF7}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -10374,26 +10352,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933AE82A-36EF-4559-8A1A-C9BA845D8825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -10401,12 +10379,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -10414,7 +10392,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10427,12 +10405,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -10440,7 +10418,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -10453,7 +10431,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -10464,7 +10442,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -10475,7 +10453,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -10488,7 +10466,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -10511,9 +10489,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -10527,10 +10505,10 @@
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -10549,7 +10527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10558,7 +10536,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10567,7 +10545,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10576,7 +10554,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10585,7 +10563,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10594,7 +10572,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10603,7 +10581,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10612,7 +10590,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -10621,7 +10599,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -10632,9 +10610,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -10643,9 +10621,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -10654,9 +10632,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -10665,7 +10643,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -10678,7 +10656,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -10701,7 +10679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -10720,7 +10698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -10739,7 +10717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -10758,7 +10736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10777,12 +10755,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
@@ -10792,29 +10770,29 @@
         <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -10823,7 +10801,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -10832,7 +10810,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -10841,7 +10819,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -10850,7 +10828,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -10861,9 +10839,546 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10892,35 +11407,35 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{6F2CDC27-55F9-424B-A285-C48F13FA83C9}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C08469B3-DA73-4E93-A672-CDE40B0EE5DE}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF900211-7B6D-4D23-BC2B-AECC5D230840}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -10928,12 +11443,12 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -10941,7 +11456,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10954,12 +11469,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -10967,12 +11482,12 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -10980,7 +11495,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -10991,7 +11506,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -11002,7 +11517,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -11015,7 +11530,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -11038,31 +11553,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -11073,29 +11588,19 @@
         <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11104,7 +11609,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -11113,7 +11618,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -11122,7 +11627,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11131,7 +11636,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11140,7 +11645,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11149,7 +11654,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -11158,7 +11663,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -11169,9 +11674,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -11180,9 +11685,9 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -11191,9 +11696,9 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -11202,7 +11707,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -11215,7 +11720,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -11238,7 +11743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -11257,7 +11762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -11276,7 +11781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -11295,7 +11800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -11308,50 +11813,31 @@
         <v>33</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>217</v>
-      </c>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11360,7 +11846,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -11369,7 +11855,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -11378,7 +11864,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -11387,7 +11873,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -11398,515 +11884,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{63B8C5FA-B516-4172-A6DD-0497D6FAF64A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{123639BD-5B0D-4BB1-BB23-EEA38582F189}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B46D42-5E56-4492-8EF2-84DFFD172A19}">
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -11937,8 +11915,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{090D85AD-9DC6-4D1F-B5D3-7547356E35AC}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C3621F09-B2B7-47D0-8E53-359904E13874}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11946,26 +11924,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24F1D42-4A31-4F87-BD31-4F1749ADBD52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -11973,7 +11951,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -11986,7 +11964,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -11999,12 +11977,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -12012,7 +11990,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -12025,7 +12003,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -12036,7 +12014,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -12047,7 +12025,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -12060,7 +12038,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -12083,26 +12061,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -12111,7 +12089,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -12120,7 +12098,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -12129,7 +12107,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -12138,7 +12116,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -12147,7 +12125,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12156,7 +12134,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -12165,7 +12143,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -12174,7 +12152,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
@@ -12185,9 +12163,9 @@
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -12196,9 +12174,9 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -12207,7 +12185,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
@@ -12218,7 +12196,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -12231,7 +12209,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -12254,7 +12232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -12273,7 +12251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -12292,7 +12270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -12311,7 +12289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -12330,7 +12308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>42</v>
       </c>
@@ -12349,7 +12327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -12368,7 +12346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -12387,7 +12365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -12406,7 +12384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -12425,7 +12403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -12444,7 +12422,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
@@ -12463,7 +12441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>67</v>
       </c>
@@ -12482,7 +12460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
         <v>17</v>
       </c>
@@ -12493,9 +12471,9 @@
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -12524,8 +12502,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{45FF60DA-642E-4684-AA68-2A951063CF3A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C6B5AF17-05CB-469F-8083-7A529528D080}"/>
+    <hyperlink ref="A20" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/doc/interface.xlsx
+++ b/doc/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F129F-872D-47C0-B492-F5DCB7994288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5301A4-875F-4C17-9F31-82A9580027A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="803" firstSheet="8" activeTab="21" xr2:uid="{AF9AEC6C-83FD-400A-9B38-8B3C14AD68ED}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="16440" windowHeight="29040" tabRatio="803" firstSheet="8" activeTab="14" xr2:uid="{AF9AEC6C-83FD-400A-9B38-8B3C14AD68ED}"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="11" r:id="rId1"/>
@@ -4307,7 +4307,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4814,8 +4814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E32C7F-5CD5-435D-881A-7CE1C9D8E5E0}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8836,7 +8836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC2103-A3D4-4565-8FD5-71EC3B6B5E82}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -10377,7 +10377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933AE82A-36EF-4559-8A1A-C9BA845D8825}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -10905,7 +10905,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/doc/interface.xlsx
+++ b/doc/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5301A4-875F-4C17-9F31-82A9580027A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE28AAC-2F96-4B55-A1AD-61DE202C2045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="16440" windowHeight="29040" tabRatio="803" firstSheet="8" activeTab="14" xr2:uid="{AF9AEC6C-83FD-400A-9B38-8B3C14AD68ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="803" firstSheet="18" activeTab="24" xr2:uid="{AF9AEC6C-83FD-400A-9B38-8B3C14AD68ED}"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,10 @@
     <sheet name="좋아요" sheetId="19" r:id="rId19"/>
     <sheet name="좋아요 취소" sheetId="20" r:id="rId20"/>
     <sheet name="일일 랭킹 조회" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId22"/>
+    <sheet name="내가등록한문제목록조회" sheetId="28" r:id="rId22"/>
+    <sheet name="내가등록한문제상세조회" sheetId="29" r:id="rId23"/>
+    <sheet name="내가등록한문제수정" sheetId="30" r:id="rId24"/>
+    <sheet name="내가등록한문제삭제" sheetId="32" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="256">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,6 +1122,134 @@
     <t>{
     "like_seq" : 1
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG-IF-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/problem/my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 승인 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시작 날짜 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/problem/my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "data" : {
+    "language_code" : "C1001"
+    , "approve_code" : "C3001"
+    , "problem_title" : "hello world"
+    , "start_date" : "2020-12-01"
+    , "end_date" : "2020-12-02"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "result_code" : "00000"
+    , "response_time" : "2020-11-10 06:00:21"
+    , "response_message" : "정상 처리되었습니다"
+    , "data" : {
+       "problem_list" : { ….. }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG-IF-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/problem/my/{problem_seq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/problem/my/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "problem_seq" : 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "result_code" : "00000"
+    , "response_time" : "2020-11-10 06:00:21"
+    , "response_message" : "정상 처리되었습니다"
+    , "data" : {
+      "problem" : {}
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG-IF-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG-IF-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyProblem (내가 등록한 문제 목록 조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyProblem (내가 등록한 문제 상세 조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyProblem (내가 등록한 문제 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyProblem (내가 등록한 문제 삭제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3218,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D643BF92-2126-4CB1-BA21-3CA05978C213}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4814,7 +4945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E32C7F-5CD5-435D-881A-7CE1C9D8E5E0}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -7820,11 +7951,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B17:G17"/>
@@ -7835,6 +7961,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8349,7 +8480,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8364,7 +8495,7 @@
         <v>178</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -8833,15 +8964,2111 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC2103-A3D4-4565-8FD5-71EC3B6B5E82}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C2440C-3613-4EA1-AE94-EC0ACBD3745B}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{D725F02A-CE43-4924-BAC8-EECCDC68FD4E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{652264AA-98B5-40EC-A4D3-11DC22B8EC23}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8324C2E0-2007-43CB-85B3-485B1AB9F0B7}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{16EC26BE-B1E5-47E2-81B2-8B183949E27A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{03513073-835B-4716-803D-00EF49A96C32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0A689E-C207-4D69-8943-CC6E93E482C9}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{2E703DFF-8189-4835-AB71-3642118042B6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C99A5290-D838-4B82-81CC-B0EB84F77FA2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A08460-E089-4E92-987A-9E6279CD32FC}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{4D3CEE93-7810-486D-B145-4C8BD35D6932}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0E51674D-7590-4917-BFF2-6601A81EC4C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10874,12 +13101,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
@@ -10889,6 +13110,12 @@
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11411,6 +13638,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
@@ -11420,12 +13653,6 @@
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/interface.xlsx
+++ b/doc/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE28AAC-2F96-4B55-A1AD-61DE202C2045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A6D8F2-6580-4A5E-888F-3534E8A4CE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="803" firstSheet="18" activeTab="24" xr2:uid="{AF9AEC6C-83FD-400A-9B38-8B3C14AD68ED}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="16440" windowHeight="29040" tabRatio="803" firstSheet="21" activeTab="24" xr2:uid="{AF9AEC6C-83FD-400A-9B38-8B3C14AD68ED}"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="11" r:id="rId1"/>
@@ -8480,7 +8480,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8968,7 +8968,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9514,8 +9514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8324C2E0-2007-43CB-85B3-485B1AB9F0B7}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10580,7 +10580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A08460-E089-4E92-987A-9E6279CD32FC}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
